--- a/Assessments/answers_transcript FM PGY1.xlsx
+++ b/Assessments/answers_transcript FM PGY1.xlsx
@@ -451,11 +451,11 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pain not worse with exertion (requires they clarify exercise 1hr after meal)</t>
+          <t>Do you have any PMHx? (counts as 2 independent minor features)</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Do you have any PMHx? (counts as 2 independent minor features)</t>
+          <t>Pain not worse with exertion (requires they clarify exercise 1hr after meal)</t>
         </is>
       </c>
     </row>
@@ -506,9 +506,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="b">
-        <v>1</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>What were you doing when the chest pain started? (eating)</t>
@@ -521,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alternative cause of esoph dysphagia becomes obvious (food gets stuck or relieved by regurgitation of food)</t>
+          <t>Alternative cause of esoph dysphagia becomes obvious(food gets stuck or relieved by regurgitation of food)</t>
         </is>
       </c>
     </row>
@@ -595,7 +593,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pain worse with exertion (without clarifying that it only occurs soley within an hour of eating)</t>
+          <t>Pain worse with exertion (without clarifying that it only occurs solely within an hour of eating)</t>
         </is>
       </c>
     </row>
@@ -1034,9 +1032,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Hand pain out of proportion to other joints (must be specific)</t>
@@ -1044,7 +1040,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Current heartburn or reflux</t>
@@ -1086,7 +1084,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>no associated shortness of breath</t>
